--- a/data/01 大断面/中游和修河.xlsx
+++ b/data/01 大断面/中游和修河.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\计算科\“千吨万人”农村饮水工程监测预警系统建设实施方案\20230624修改稿\02 典型设计水源地\01 大断面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718A93CD-B1FA-498F-82C6-F286B4562557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70BEE31-754D-48D0-93F1-EEACA001E659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35895" yWindow="2910" windowWidth="23460" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="乐园乡农饮集中供水工程" sheetId="12" r:id="rId1"/>
-    <sheet name="路口乡集中供水工程" sheetId="11" r:id="rId2"/>
-    <sheet name="漫江乡集中供水工程" sheetId="10" r:id="rId3"/>
-    <sheet name="马市镇水厂" sheetId="6" r:id="rId4"/>
+    <sheet name="马市镇水厂" sheetId="6" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>垂线号</t>
   </si>
@@ -57,9 +55,6 @@
     <t>左岸</t>
   </si>
   <si>
-    <t>取水口高程</t>
-  </si>
-  <si>
     <t>右岸</t>
   </si>
   <si>
@@ -75,33 +70,34 @@
     <t>项目</t>
   </si>
   <si>
-    <t>历史最高水位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史最低水位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>水位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>低枯水标准</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>取水口高程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查最高水位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低枯水预警水位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极枯水预警水位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -126,14 +122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -147,6 +135,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +201,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -221,45 +215,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -643,606 +646,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>路口乡集中供水工程!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.60000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>路口乡集中供水工程!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>182.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>181.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>178.22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>177.58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>176.14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>174.93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>176.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>177.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>179.47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>181.56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A9BE-4D69-BCD7-7246A1B07B73}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1129963855"/>
-        <c:axId val="1129965103"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1129963855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1129965103"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1129965103"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1129963855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>漫江乡集中供水工程!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>漫江乡集中供水工程!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>276.27999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>276.04000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>274.83</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>274.97000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>274.64999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>275.33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>275.99</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>276.47000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5AA9-49B1-A0D5-B0D294AC9E2F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1096109855"/>
-        <c:axId val="1096126911"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1096109855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1096126911"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1096126911"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1096109855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2167,86 +1570,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2764,1038 +2087,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4355,92 +2646,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A9EBE1-1204-4EA2-ADA1-2ACB87A94247}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1776412</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5979C310-BC45-46BC-9791-AFB83EE19020}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5739,521 +3944,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D603ABB6-5757-4979-8F98-58941B7A035E}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="23" style="12" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="39.5" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="23" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9" style="10"/>
+    <col min="5" max="5" width="39.5" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>91.78</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>91.18</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="F3" s="17">
+        <v>87.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>89.06</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16">
+        <v>87.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>88.79</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12">
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>87.440000000000012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B2" s="11">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>91.78</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="15">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="18">
-        <v>91.18</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="C4" s="11">
-        <v>89.06</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="16">
-        <v>88.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="C5" s="11">
-        <v>88.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>3.8</v>
-      </c>
-      <c r="C6" s="11">
-        <v>87.440000000000012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>7.3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>87.330000000000013</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>11</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>87.39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>13.1</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>88.37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>14.9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>88.600000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="14">
         <v>15.4</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <v>89.09</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
         <v>16.7</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>89.26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CDCBA3-71FE-4672-9C3D-517DE6C4A6F4}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="23" style="12" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="39.5" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>182.5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="15">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="C3" s="12">
-        <v>181.2</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="16">
-        <v>175.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11">
-        <v>178.22</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="16">
-        <v>175.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>5.4</v>
-      </c>
-      <c r="C5" s="11">
-        <v>177.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>7.3</v>
-      </c>
-      <c r="C6" s="11">
-        <v>176.14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>12.6</v>
-      </c>
-      <c r="C7" s="11">
-        <v>174.93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>15.1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>176.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11">
-        <v>16.7</v>
-      </c>
-      <c r="C9" s="11">
-        <v>177.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11">
-        <v>179.47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13">
-        <v>22</v>
-      </c>
-      <c r="C11" s="13">
-        <v>181.56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="13">
-        <v>23</v>
-      </c>
-      <c r="C12" s="13">
-        <v>182.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1211027-008F-4253-90E5-F08AF2E4F606}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="23" style="12" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="39.5" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="11">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
-        <v>276.27999999999997</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="15">
-        <v>276.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>276.04000000000002</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="16">
-        <v>274.85000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>274.83</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="16">
-        <v>274.95999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11">
-        <v>274.97000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11">
-        <v>274.64999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
-        <v>275.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11">
-        <v>275.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11">
-        <v>276.47000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6268,69 +4150,69 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>62.96</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3">
-        <v>63.06</v>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18">
+        <v>64.349999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>4.5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>62.93</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8">
-        <v>58.3</v>
+      <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18">
+        <v>58.26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>58.43</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="19">
         <v>58.36</v>
       </c>
     </row>
@@ -6338,21 +4220,27 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>58.4</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="20">
+        <v>58.2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>58.38</v>
       </c>
     </row>
@@ -6360,10 +4248,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>11</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>58.34</v>
       </c>
     </row>
@@ -6371,10 +4259,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>12</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>58.17</v>
       </c>
     </row>
@@ -6382,10 +4270,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>13</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>58.19</v>
       </c>
     </row>
@@ -6393,10 +4281,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>14.5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>58.43</v>
       </c>
     </row>
@@ -6404,10 +4292,10 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>58.59</v>
       </c>
     </row>
@@ -6415,10 +4303,10 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>18</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>58.6</v>
       </c>
     </row>
@@ -6426,10 +4314,10 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>20</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>58.57</v>
       </c>
     </row>
@@ -6437,10 +4325,10 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>23</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>58.5</v>
       </c>
     </row>
@@ -6448,10 +4336,10 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>26</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>58.46</v>
       </c>
     </row>
@@ -6459,10 +4347,10 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>29</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>58.44</v>
       </c>
     </row>
@@ -6470,10 +4358,10 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>31</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>58.37</v>
       </c>
     </row>
@@ -6481,10 +4369,10 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>33</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>58.39</v>
       </c>
     </row>
@@ -6492,10 +4380,10 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>35</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>58.51</v>
       </c>
     </row>
@@ -6503,10 +4391,10 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>38.5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>58.69</v>
       </c>
     </row>
@@ -6514,10 +4402,10 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>41</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>58.75</v>
       </c>
     </row>
@@ -6525,10 +4413,10 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>43.5</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>58.91</v>
       </c>
     </row>
@@ -6536,10 +4424,10 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>44.5</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>58.97</v>
       </c>
     </row>
@@ -6547,10 +4435,10 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>58.81</v>
       </c>
     </row>
@@ -6558,10 +4446,10 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>50</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>58.63</v>
       </c>
     </row>
@@ -6569,10 +4457,10 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>51</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>58.43</v>
       </c>
     </row>
@@ -6580,10 +4468,10 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>52</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>58.41</v>
       </c>
     </row>
@@ -6591,10 +4479,10 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>54</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>58.35</v>
       </c>
     </row>
@@ -6602,10 +4490,10 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>55.5</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>58.24</v>
       </c>
     </row>
@@ -6613,10 +4501,10 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>57</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>58.21</v>
       </c>
     </row>
@@ -6624,10 +4512,10 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>58</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>58.16</v>
       </c>
     </row>
@@ -6635,10 +4523,10 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>59</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>58.11</v>
       </c>
     </row>
@@ -6646,10 +4534,10 @@
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>60</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>58.17</v>
       </c>
     </row>
@@ -6657,10 +4545,10 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>61.1</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>58.08</v>
       </c>
     </row>
@@ -6668,10 +4556,10 @@
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>61</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>58.15</v>
       </c>
     </row>
@@ -6679,10 +4567,10 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>62</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>58.2</v>
       </c>
     </row>
@@ -6690,10 +4578,10 @@
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>63</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>58.29</v>
       </c>
     </row>
@@ -6701,10 +4589,10 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>64</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>58.28</v>
       </c>
     </row>
@@ -6712,10 +4600,10 @@
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>65</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>58.36</v>
       </c>
     </row>
@@ -6723,10 +4611,10 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>66</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>58.39</v>
       </c>
     </row>
@@ -6734,10 +4622,10 @@
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>70.5</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>58.43</v>
       </c>
     </row>
@@ -6745,10 +4633,10 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>71.5</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>58.5</v>
       </c>
     </row>
@@ -6756,10 +4644,10 @@
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>73.5</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>58.52</v>
       </c>
     </row>
@@ -6767,10 +4655,10 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>77</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>58.43</v>
       </c>
     </row>
@@ -6778,10 +4666,10 @@
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>80</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>58.36</v>
       </c>
     </row>
@@ -6789,10 +4677,10 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>81.5</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>58.31</v>
       </c>
     </row>
@@ -6800,10 +4688,10 @@
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>82.5</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>58.17</v>
       </c>
     </row>
@@ -6811,10 +4699,10 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>83</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>58.09</v>
       </c>
     </row>
@@ -6822,10 +4710,10 @@
       <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>84</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>58.1</v>
       </c>
     </row>
@@ -6833,10 +4721,10 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>85</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>58.27</v>
       </c>
     </row>
@@ -6844,10 +4732,10 @@
       <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>86</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>58.26</v>
       </c>
     </row>
@@ -6855,10 +4743,10 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>88</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>58.43</v>
       </c>
     </row>
@@ -6866,10 +4754,10 @@
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>91</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>60.69</v>
       </c>
     </row>
@@ -6877,10 +4765,10 @@
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>93.3</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>62.55</v>
       </c>
     </row>
@@ -6888,10 +4776,10 @@
       <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>94.5</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>62.71</v>
       </c>
     </row>
@@ -6899,10 +4787,10 @@
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>96.3</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>63.08</v>
       </c>
     </row>
@@ -6910,15 +4798,15 @@
       <c r="A57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>98</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>69.319999999999993</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
